--- a/citas/NICOYA_citas_disponibles.xlsx
+++ b/citas/NICOYA_citas_disponibles.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jueves 16/05/2024</t>
+          <t>Jueves 18/04/2024</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Viernes 17/05/2024</t>
+          <t>Viernes 19/04/2024</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lunes 20/05/2024</t>
+          <t>Lunes 22/04/2024</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Martes 21/05/2024</t>
+          <t>Martes 23/04/2024</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Miércoles 22/05/2024</t>
+          <t>Jueves 25/04/2024</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jueves 23/05/2024</t>
+          <t>Lunes 29/04/2024</t>
         </is>
       </c>
     </row>
@@ -513,43 +513,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lunes 27/05/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Martes 28/05/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Miércoles 29/05/2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Jueves 30/05/2024</t>
+          <t>Martes 30/04/2024</t>
         </is>
       </c>
     </row>
